--- a/bloodhound/credenciais_oi_raid7_v17012018.xlsx
+++ b/bloodhound/credenciais_oi_raid7_v17012018.xlsx
@@ -1179,9 +1179,6 @@
     <t>Custo Oracle STO RAC</t>
   </si>
   <si>
-    <t>Bc2Qv9XC</t>
-  </si>
-  <si>
     <t>PORTAL_FMS_APP</t>
   </si>
   <si>
@@ -1688,6 +1685,9 @@
   </si>
   <si>
     <t>Wedo_80FMS</t>
+  </si>
+  <si>
+    <t>An5eR9vB</t>
   </si>
 </sst>
 </file>
@@ -2292,6 +2292,12 @@
     <xf numFmtId="165" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2306,12 +2312,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3104,7 +3104,7 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="104" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
@@ -3115,7 +3115,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="102"/>
+      <c r="A21" s="104"/>
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -3124,7 +3124,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="102"/>
+      <c r="A22" s="104"/>
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -3421,35 +3421,35 @@
   <sheetData>
     <row r="1" spans="1:15" ht="28.5">
       <c r="A1" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="D1" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="H1" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>343</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>344</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>383</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>384</v>
-      </c>
-      <c r="H1" s="64" t="s">
-        <v>346</v>
-      </c>
       <c r="I1" s="65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J1" s="37"/>
       <c r="K1" s="66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L1" s="67">
         <v>8000000</v>
@@ -3460,22 +3460,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C2" s="35">
         <v>1</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E2" s="69">
         <v>0.02</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H2" s="71">
         <f>L1*E2</f>
@@ -3485,13 +3485,13 @@
         <v>10</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L2" s="30">
         <v>65</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="28.5" hidden="1">
@@ -3499,22 +3499,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C3" s="35">
         <v>2</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E3" s="69">
         <v>0.05</v>
       </c>
       <c r="F3" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="G3" s="70" t="s">
         <v>386</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>387</v>
       </c>
       <c r="H3" s="71">
         <f>L1*E3</f>
@@ -3524,13 +3524,13 @@
         <v>35</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L3" s="30">
         <v>74</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="42.75" hidden="1">
@@ -3538,13 +3538,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C4" s="35">
         <v>11</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E4" s="69">
         <v>0.04</v>
@@ -3563,14 +3563,14 @@
         <v>25</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L4" s="30">
         <f>SUM(L2:L3)</f>
         <v>139</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O4" s="30">
         <v>52</v>
@@ -3581,13 +3581,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D5" s="98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E5" s="99">
         <v>0.06</v>
@@ -3606,7 +3606,7 @@
         <v>40</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L5" s="73">
         <f>L4/O4</f>
@@ -3618,19 +3618,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C6" s="39">
         <v>3</v>
       </c>
       <c r="D6" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E6" s="99">
         <v>0.02</v>
       </c>
       <c r="F6" s="100" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G6" s="100" t="s">
         <v>106</v>
@@ -3648,13 +3648,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E7" s="69">
         <v>0.02</v>
@@ -3678,13 +3678,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E8" s="69">
         <v>0.02</v>
@@ -3708,13 +3708,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="69">
         <v>0.02</v>
@@ -3738,13 +3738,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C10" s="35">
         <v>10</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E10" s="69">
         <v>0.04</v>
@@ -3768,13 +3768,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E11" s="69">
         <v>0.09</v>
@@ -3798,13 +3798,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E12" s="69">
         <v>0.04</v>
@@ -3828,13 +3828,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C13" s="35">
         <v>12</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E13" s="69">
         <v>0.04</v>
@@ -3858,13 +3858,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E14" s="69">
         <v>7.0000000000000007E-2</v>
@@ -3888,13 +3888,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E15" s="69">
         <v>0.04</v>
@@ -3918,13 +3918,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C16" s="35">
         <v>15</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E16" s="69">
         <v>7.0000000000000007E-2</v>
@@ -3948,13 +3948,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E17" s="69">
         <v>0.04</v>
@@ -3978,13 +3978,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C18" s="35">
         <v>17</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E18" s="69">
         <v>0.04</v>
@@ -4008,13 +4008,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E19" s="69">
         <v>0.04</v>
@@ -4038,13 +4038,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C20" s="35">
         <v>19</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E20" s="69">
         <v>0.03</v>
@@ -4068,13 +4068,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C21" s="35">
         <v>20</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E21" s="69">
         <v>7.0000000000000007E-2</v>
@@ -4098,13 +4098,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C22" s="35">
         <v>21</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E22" s="69">
         <v>7.0000000000000007E-2</v>
@@ -4128,13 +4128,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C23" s="35">
         <v>22</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E23" s="69">
         <v>7.0000000000000007E-2</v>
@@ -4207,53 +4207,53 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="G1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="2:14">
-      <c r="C2" s="102" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="C2" s="104" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="2:14" ht="45">
       <c r="B3" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" s="61" t="s">
+      <c r="E3" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="F3" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="G3" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="H3" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" s="61" t="s">
         <v>330</v>
       </c>
-      <c r="H3" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="I3" s="61" t="s">
+      <c r="K3" s="61" t="s">
         <v>331</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="L3" s="61" t="s">
         <v>332</v>
       </c>
-      <c r="L3" s="61" t="s">
-        <v>333</v>
-      </c>
       <c r="M3" s="61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -4301,50 +4301,50 @@
     </row>
     <row r="8" spans="2:14">
       <c r="G8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="102" t="s">
-        <v>324</v>
-      </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
+      <c r="C9" s="104" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
     </row>
     <row r="10" spans="2:14" ht="45">
       <c r="B10" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="61" t="s">
+      <c r="E10" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="F10" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="G10" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="H10" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="I10" s="61" t="s">
         <v>330</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="K10" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="I10" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="K10" s="61" t="s">
-        <v>337</v>
-      </c>
       <c r="L10" s="61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -4411,93 +4411,93 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="79" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="81" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L2" s="80" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L3" s="82" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="79" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L4" s="82" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="79" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="81" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L6" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="79" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L8" s="82" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="79" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L9" s="82" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L10" s="82" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L11" s="82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="79" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75">
@@ -4505,70 +4505,70 @@
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="79" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="81" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L16" s="83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L17" s="83"/>
     </row>
     <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="79" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L18" s="83" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="79" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L19" s="83" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="81" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L20" s="83" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="79" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="79" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="79" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -4807,15 +4807,15 @@
         <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>48</v>
@@ -4841,15 +4841,15 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4949,19 +4949,19 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="L20" s="103" t="s">
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="L20" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="104" t="s">
         <v>55</v>
       </c>
       <c r="B21" t="s">
@@ -4970,7 +4970,7 @@
       <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="102" t="s">
+      <c r="L21" s="104" t="s">
         <v>74</v>
       </c>
       <c r="M21" t="s">
@@ -4981,14 +4981,14 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="102"/>
+      <c r="A22" s="104"/>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>1549</v>
       </c>
-      <c r="L22" s="102"/>
+      <c r="L22" s="104"/>
       <c r="M22" t="s">
         <v>14</v>
       </c>
@@ -4997,14 +4997,14 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="102"/>
+      <c r="A23" s="104"/>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="102"/>
+      <c r="L23" s="104"/>
       <c r="M23" t="s">
         <v>13</v>
       </c>
@@ -5053,7 +5053,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="104" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
@@ -5062,7 +5062,7 @@
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="102" t="s">
+      <c r="L32" s="104" t="s">
         <v>78</v>
       </c>
       <c r="M32" t="s">
@@ -5073,14 +5073,14 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="102"/>
+      <c r="A33" s="104"/>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>1549</v>
       </c>
-      <c r="L33" s="102"/>
+      <c r="L33" s="104"/>
       <c r="M33" t="s">
         <v>14</v>
       </c>
@@ -5089,14 +5089,14 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="102"/>
+      <c r="A34" s="104"/>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="102"/>
+      <c r="L34" s="104"/>
       <c r="M34" t="s">
         <v>13</v>
       </c>
@@ -5592,19 +5592,19 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="L20" s="103" t="s">
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="L20" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="104" t="s">
         <v>55</v>
       </c>
       <c r="B21" t="s">
@@ -5613,7 +5613,7 @@
       <c r="C21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="102" t="s">
+      <c r="L21" s="104" t="s">
         <v>74</v>
       </c>
       <c r="M21" t="s">
@@ -5624,14 +5624,14 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="102"/>
+      <c r="A22" s="104"/>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>1549</v>
       </c>
-      <c r="L22" s="102"/>
+      <c r="L22" s="104"/>
       <c r="M22" t="s">
         <v>14</v>
       </c>
@@ -5640,14 +5640,14 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="102"/>
+      <c r="A23" s="104"/>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="102"/>
+      <c r="L23" s="104"/>
       <c r="M23" t="s">
         <v>13</v>
       </c>
@@ -5696,7 +5696,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="104" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
@@ -5705,7 +5705,7 @@
       <c r="C32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L32" s="102" t="s">
+      <c r="L32" s="104" t="s">
         <v>78</v>
       </c>
       <c r="M32" t="s">
@@ -5716,14 +5716,14 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="102"/>
+      <c r="A33" s="104"/>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>1549</v>
       </c>
-      <c r="L33" s="102"/>
+      <c r="L33" s="104"/>
       <c r="M33" t="s">
         <v>14</v>
       </c>
@@ -5732,14 +5732,14 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="102"/>
+      <c r="A34" s="104"/>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L34" s="102"/>
+      <c r="L34" s="104"/>
       <c r="M34" t="s">
         <v>13</v>
       </c>
@@ -6339,8 +6339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6362,17 +6362,17 @@
         <v>245</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="106" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="29" t="s">
@@ -6452,7 +6452,7 @@
         <v>248</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>253</v>
@@ -6464,10 +6464,10 @@
         <v>255</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K4" s="34" t="s">
         <v>262</v>
@@ -6482,28 +6482,28 @@
         <v>233</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>293</v>
+        <v>462</v>
       </c>
       <c r="E5" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" s="52" t="s">
         <v>339</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>340</v>
       </c>
       <c r="L5" s="30"/>
     </row>
@@ -6515,7 +6515,7 @@
         <v>246</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -6524,22 +6524,22 @@
         <v>247</v>
       </c>
       <c r="B8" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="F8" t="s">
         <v>321</v>
       </c>
-      <c r="F8" t="s">
-        <v>322</v>
-      </c>
       <c r="I8" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:12">
       <c r="I9" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -6551,7 +6551,7 @@
         <v>258</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -6563,7 +6563,7 @@
         <v>258</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -6576,14 +6576,14 @@
         <v>260</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="30"/>
       <c r="I14" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J14" s="30"/>
     </row>
@@ -6592,7 +6592,7 @@
         <v>264</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I17" s="35">
         <v>1553</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I18" s="35" t="s">
         <v>248</v>
@@ -6627,37 +6627,37 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>451</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="B24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6665,17 +6665,17 @@
         <v>245</v>
       </c>
       <c r="B26" s="29"/>
-      <c r="C26" s="104" t="s">
-        <v>454</v>
-      </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
+      <c r="C26" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="29" t="s">
@@ -6722,7 +6722,7 @@
         <v>248</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>253</v>
@@ -6734,10 +6734,10 @@
         <v>255</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K28" s="34" t="s">
         <v>262</v>
@@ -6752,65 +6752,65 @@
         <v>233</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>293</v>
+        <v>462</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F29" s="52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I29" s="52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J29" s="52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K29" s="52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="H32" s="103" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="102" t="s">
         <v>455</v>
       </c>
-      <c r="H32" s="108" t="s">
+      <c r="H33" s="103" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="H34" s="103" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="107" t="s">
-        <v>456</v>
-      </c>
-      <c r="H33" s="108" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="H34" s="108" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
+        <v>456</v>
+      </c>
+      <c r="B35" t="s">
         <v>457</v>
       </c>
-      <c r="B35" t="s">
-        <v>458</v>
-      </c>
-      <c r="H35" s="108" t="s">
-        <v>461</v>
+      <c r="H35" s="103" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="H36" s="108" t="s">
-        <v>420</v>
+      <c r="H36" s="103" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -6849,10 +6849,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="107" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="105"/>
+      <c r="G1" s="107"/>
       <c r="I1" s="30" t="s">
         <v>267</v>
       </c>
@@ -6860,10 +6860,10 @@
     <row r="2" spans="1:9">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="106"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="37"/>
@@ -7179,52 +7179,52 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="H1" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="I1" s="105" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="107" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
       <c r="M1" s="30" t="s">
         <v>267</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="106"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="36"/>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="106"/>
+      <c r="G2" s="108"/>
       <c r="O2" s="88" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q2" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="T2" s="30" t="s">
         <v>393</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="T2" s="30" t="s">
-        <v>394</v>
       </c>
       <c r="V2" s="30" t="s">
         <v>250</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="O3" s="88"/>
       <c r="T3" s="75" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -7259,7 +7259,7 @@
         <v>512</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="N4" s="87"/>
       <c r="O4" s="91" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="77">
         <v>32</v>
@@ -7285,16 +7285,16 @@
         <v>512</v>
       </c>
       <c r="S4" s="77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T4" s="30">
         <v>55</v>
       </c>
       <c r="V4" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W4" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -7308,7 +7308,7 @@
         <v>128</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F5" s="47">
         <v>24</v>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="N5" s="87"/>
       <c r="O5" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="77">
         <v>24</v>
@@ -7340,16 +7340,16 @@
         <v>192</v>
       </c>
       <c r="S5" s="77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="T5" s="30">
         <v>67</v>
       </c>
       <c r="V5" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W5" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -7370,7 +7370,7 @@
         <v>1024</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="N7" s="87"/>
       <c r="O7" s="93" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q7" s="77">
         <v>80</v>
@@ -7396,16 +7396,16 @@
         <v>1536</v>
       </c>
       <c r="S7" s="77" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="T7" s="30">
         <v>160</v>
       </c>
       <c r="V7" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W7" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -7435,7 +7435,7 @@
         <v>512</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="N10" s="87"/>
       <c r="O10" s="91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="77">
         <v>32</v>
@@ -7461,16 +7461,16 @@
         <v>512</v>
       </c>
       <c r="S10" s="77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T10" s="30">
         <v>55</v>
       </c>
       <c r="V10" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W10" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -7498,7 +7498,7 @@
         <v>1024</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="N13" s="87"/>
       <c r="O13" s="91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q13" s="77">
         <v>80</v>
@@ -7524,16 +7524,16 @@
         <v>1536</v>
       </c>
       <c r="S13" s="77" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="T13" s="30">
         <v>160</v>
       </c>
       <c r="V13" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W13" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -7584,7 +7584,7 @@
         <v>1024</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="N17" s="87"/>
       <c r="O17" s="91" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="77">
         <v>32</v>
@@ -7607,13 +7607,13 @@
         <v>512</v>
       </c>
       <c r="S17" s="77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T17" s="30">
         <v>55</v>
       </c>
       <c r="V17" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W17" s="30" t="s">
         <v>32</v>
@@ -7630,7 +7630,7 @@
         <v>1024</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I18" s="35">
         <v>83</v>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="N18" s="87"/>
       <c r="O18" s="91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q18" s="77">
         <v>32</v>
@@ -7651,13 +7651,13 @@
         <v>512</v>
       </c>
       <c r="S18" s="77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T18" s="30">
         <v>55</v>
       </c>
       <c r="V18" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W18" s="30" t="s">
         <v>32</v>
@@ -7665,12 +7665,12 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
       <c r="E19" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="N19" s="87"/>
       <c r="O19" s="91" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="77">
         <v>32</v>
@@ -7689,13 +7689,13 @@
         <v>512</v>
       </c>
       <c r="S19" s="77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T19" s="30">
         <v>55</v>
       </c>
       <c r="V19" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W19" s="30" t="s">
         <v>32</v>
@@ -7703,12 +7703,12 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
       <c r="E20" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="N20" s="87"/>
       <c r="O20" s="91" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="77">
         <v>32</v>
@@ -7727,13 +7727,13 @@
         <v>512</v>
       </c>
       <c r="S20" s="77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T20" s="30">
         <v>55</v>
       </c>
       <c r="V20" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W20" s="30" t="s">
         <v>32</v>
@@ -7741,7 +7741,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C21" s="76">
         <v>24</v>
@@ -7750,7 +7750,7 @@
         <v>128</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I21" s="35">
         <v>21</v>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="N21" s="87"/>
       <c r="O21" s="93" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q21" s="77">
         <v>24</v>
@@ -7771,16 +7771,16 @@
         <v>192</v>
       </c>
       <c r="S21" s="77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="T21" s="30">
         <v>33</v>
       </c>
       <c r="V21" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W21" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -7889,7 +7889,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C27" s="35">
         <v>36</v>
@@ -7922,13 +7922,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="C28" s="39" t="s">
-        <v>310</v>
-      </c>
       <c r="D28" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E28" s="35"/>
       <c r="H28" s="47"/>
@@ -7951,7 +7951,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="R30" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T30" s="96">
         <f>T22*1000</f>
@@ -7986,7 +7986,7 @@
         <v>75571.199999999997</v>
       </c>
       <c r="R31" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T31" s="45">
         <f>SUM(H31:J32,H34)</f>
@@ -8014,7 +8014,7 @@
         <v>15114.24</v>
       </c>
       <c r="R32" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T32" s="44">
         <f>12000*3+40000</f>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H33" s="44">
         <v>300000</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H34" s="94">
         <v>10000</v>

--- a/bloodhound/credenciais_oi_raid7_v17012018.xlsx
+++ b/bloodhound/credenciais_oi_raid7_v17012018.xlsx
@@ -32,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'ME Ondas'!$A$1:$I$23</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 

--- a/bloodhound/credenciais_oi_raid7_v17012018.xlsx
+++ b/bloodhound/credenciais_oi_raid7_v17012018.xlsx
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="473">
   <si>
     <t>raid_pi_adm</t>
   </si>
@@ -1688,6 +1688,36 @@
   </si>
   <si>
     <t>An5eR9vB</t>
+  </si>
+  <si>
+    <t>PortalFMSDX.intranet</t>
+  </si>
+  <si>
+    <t>PortalFMSHX.intranet</t>
+  </si>
+  <si>
+    <t>PortalFMS.intranet</t>
+  </si>
+  <si>
+    <t>PortalFMSContax.intranet</t>
+  </si>
+  <si>
+    <t>Nome URL</t>
+  </si>
+  <si>
+    <t>endereço</t>
+  </si>
+  <si>
+    <t>http://10.58.47.220:8080/web/guest/home</t>
+  </si>
+  <si>
+    <t>fmspx04a e fmspx04b</t>
+  </si>
+  <si>
+    <t>PortalFMSSandbox</t>
+  </si>
+  <si>
+    <t>fmshx02</t>
   </si>
 </sst>
 </file>
@@ -6337,16 +6367,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -6813,6 +6843,55 @@
         <v>419</v>
       </c>
     </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>467</v>
+      </c>
+      <c r="B37" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>463</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>464</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>471</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>465</v>
+      </c>
+      <c r="B41" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B42" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:K1"/>
@@ -6820,9 +6899,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B38" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6831,7 +6911,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7146,8 +7226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
